--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12990" activeTab="7"/>
+    <workbookView windowWidth="28245" windowHeight="12990" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="experiments" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,16 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
     <sheet name="CRTN" sheetId="8" r:id="rId7"/>
     <sheet name="crtn local" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="225">
   <si>
     <t>标准参数</t>
   </si>
@@ -620,6 +623,15 @@
     <t>baseline</t>
   </si>
   <si>
+    <t>d_ff</t>
+  </si>
+  <si>
+    <t>mem_len</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
     <t>RESULT/valid</t>
   </si>
   <si>
@@ -627,6 +639,66 @@
   </si>
   <si>
     <t>1.1.0</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>验证300epoch是否逼近baseline</t>
+  </si>
+  <si>
+    <t>与base对比</t>
+  </si>
+  <si>
+    <t>no_summary</t>
+  </si>
+  <si>
+    <t>wise_summary</t>
+  </si>
+  <si>
+    <t>no_wise</t>
+  </si>
+  <si>
+    <t>not_weighted</t>
+  </si>
+  <si>
+    <t>baseline 70-210</t>
+  </si>
+  <si>
+    <t>no_weight</t>
+  </si>
+  <si>
+    <t>/-adaptive</t>
+  </si>
+  <si>
+    <t>不收</t>
+  </si>
+  <si>
+    <t>炸</t>
+  </si>
+  <si>
+    <t>emsize_nhid</t>
+  </si>
+  <si>
+    <t>wise and no</t>
+  </si>
+  <si>
+    <t>nlayers12</t>
+  </si>
+  <si>
+    <t>dropout0.2</t>
+  </si>
+  <si>
+    <t>wikitext-103</t>
+  </si>
+  <si>
+    <t>dropout0.1</t>
+  </si>
+  <si>
+    <t>maxpooling</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -635,12 +707,20 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -656,7 +736,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,11 +750,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -686,16 +773,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,15 +790,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,16 +804,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,17 +843,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,15 +871,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,7 +881,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,31 +965,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,19 +983,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,61 +1013,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,19 +1043,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,25 +1067,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,21 +1095,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,6 +1153,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1097,153 +1183,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5009,6 +5110,1111 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.00022</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.00015</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.00018</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.0002</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.00022</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.00025</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.00028</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.0003</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.00035</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3">
+        <v>0.45</v>
+      </c>
+      <c r="C3">
+        <v>0.42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3">
+        <v>0.45</v>
+      </c>
+      <c r="J3">
+        <v>72.96</v>
+      </c>
+      <c r="K3" s="3">
+        <v>72.1</v>
+      </c>
+      <c r="L3">
+        <v>72.96</v>
+      </c>
+      <c r="M3">
+        <v>72.79</v>
+      </c>
+      <c r="N3">
+        <v>72.46</v>
+      </c>
+      <c r="O3">
+        <v>72.59</v>
+      </c>
+      <c r="P3">
+        <v>73.05</v>
+      </c>
+      <c r="Q3">
+        <v>73.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5">
+        <v>280</v>
+      </c>
+      <c r="E5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5">
+        <v>320</v>
+      </c>
+      <c r="I5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5" s="3">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6">
+        <v>280</v>
+      </c>
+      <c r="E6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6">
+        <v>320</v>
+      </c>
+      <c r="J6">
+        <v>73.13</v>
+      </c>
+      <c r="K6">
+        <v>73.38</v>
+      </c>
+      <c r="L6">
+        <v>72.56</v>
+      </c>
+      <c r="M6">
+        <v>72.79</v>
+      </c>
+      <c r="N6">
+        <v>72.66</v>
+      </c>
+      <c r="O6" s="3">
+        <v>72.41</v>
+      </c>
+      <c r="P6">
+        <v>72.91</v>
+      </c>
+      <c r="Q6">
+        <v>72.65</v>
+      </c>
+      <c r="R6">
+        <v>72.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9">
+        <v>0.35</v>
+      </c>
+      <c r="K9">
+        <v>0.38</v>
+      </c>
+      <c r="L9">
+        <v>0.4</v>
+      </c>
+      <c r="M9">
+        <v>0.42</v>
+      </c>
+      <c r="N9">
+        <v>0.45</v>
+      </c>
+      <c r="O9">
+        <v>0.48</v>
+      </c>
+      <c r="P9">
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>75.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>16</v>
+      </c>
+      <c r="O12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>72.79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>1111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+      <c r="E16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16">
+        <v>200</v>
+      </c>
+      <c r="I16" t="s">
+        <v>217</v>
+      </c>
+      <c r="J16">
+        <v>200</v>
+      </c>
+      <c r="K16">
+        <v>250</v>
+      </c>
+      <c r="L16">
+        <v>300</v>
+      </c>
+      <c r="M16">
+        <v>320</v>
+      </c>
+      <c r="N16">
+        <v>350</v>
+      </c>
+      <c r="O16">
+        <v>400</v>
+      </c>
+      <c r="P16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13">
+      <c r="M17">
+        <v>72.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>72.92</v>
+      </c>
+      <c r="C18">
+        <v>72.56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>72.79</v>
+      </c>
+    </row>
+    <row r="20" spans="9:15">
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>50</v>
+      </c>
+      <c r="K20">
+        <v>60</v>
+      </c>
+      <c r="L20">
+        <v>70</v>
+      </c>
+      <c r="M20">
+        <v>80</v>
+      </c>
+      <c r="N20">
+        <v>90</v>
+      </c>
+      <c r="O20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="13:13">
+      <c r="M21">
+        <v>72.79</v>
+      </c>
+    </row>
+    <row r="24" spans="9:15">
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>25</v>
+      </c>
+      <c r="L24">
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <v>35</v>
+      </c>
+      <c r="N24">
+        <v>40</v>
+      </c>
+      <c r="O24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="10:15">
+      <c r="J25">
+        <v>73.74</v>
+      </c>
+      <c r="K25">
+        <v>73.02</v>
+      </c>
+      <c r="L25">
+        <v>72.79</v>
+      </c>
+      <c r="M25">
+        <v>72.89</v>
+      </c>
+      <c r="N25">
+        <v>73.16</v>
+      </c>
+      <c r="O25">
+        <v>72.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.00025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3">
+        <v>0.45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.00024</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.00026</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.00023</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.00027</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.00022</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.00028</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.0002</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>71.57</v>
+      </c>
+      <c r="F4">
+        <v>71.45</v>
+      </c>
+      <c r="G4">
+        <v>71.67</v>
+      </c>
+      <c r="H4" s="3">
+        <v>71.02</v>
+      </c>
+      <c r="I4">
+        <v>71.6</v>
+      </c>
+      <c r="J4">
+        <v>71.76</v>
+      </c>
+      <c r="K4">
+        <v>71.13</v>
+      </c>
+      <c r="L4">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5">
+        <v>280</v>
+      </c>
+      <c r="O5" t="s">
+        <v>220</v>
+      </c>
+      <c r="P5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6">
+        <v>280</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>0.44</v>
+      </c>
+      <c r="F7">
+        <v>0.46</v>
+      </c>
+      <c r="G7">
+        <v>0.43</v>
+      </c>
+      <c r="H7">
+        <v>0.47</v>
+      </c>
+      <c r="I7">
+        <v>0.42</v>
+      </c>
+      <c r="J7">
+        <v>0.48</v>
+      </c>
+      <c r="K7">
+        <v>0.41</v>
+      </c>
+      <c r="L7">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>72.11</v>
+      </c>
+      <c r="F8">
+        <v>71.79</v>
+      </c>
+      <c r="G8">
+        <v>71.45</v>
+      </c>
+      <c r="H8">
+        <v>71.4</v>
+      </c>
+      <c r="I8">
+        <v>72.02</v>
+      </c>
+      <c r="J8">
+        <v>72.48</v>
+      </c>
+      <c r="K8">
+        <v>72.8</v>
+      </c>
+      <c r="L8">
+        <v>71.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>222</v>
+      </c>
+      <c r="P10" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>19</v>
+      </c>
+      <c r="L11" s="4">
+        <v>20</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>71.62</v>
+      </c>
+      <c r="F12">
+        <v>71.52</v>
+      </c>
+      <c r="G12">
+        <v>71.92</v>
+      </c>
+      <c r="H12">
+        <v>71.85</v>
+      </c>
+      <c r="I12">
+        <v>71.69</v>
+      </c>
+      <c r="J12">
+        <v>72.49</v>
+      </c>
+      <c r="K12" t="s">
+        <v>215</v>
+      </c>
+      <c r="L12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15">
+        <v>200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>240</v>
+      </c>
+      <c r="G15">
+        <v>320</v>
+      </c>
+      <c r="H15">
+        <v>360</v>
+      </c>
+      <c r="I15">
+        <v>400</v>
+      </c>
+      <c r="J15">
+        <v>480</v>
+      </c>
+      <c r="O15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>1111</v>
+      </c>
+      <c r="E16">
+        <v>71.02</v>
+      </c>
+      <c r="F16" s="3">
+        <v>70.62</v>
+      </c>
+      <c r="G16">
+        <v>72.61</v>
+      </c>
+      <c r="H16">
+        <v>74.15</v>
+      </c>
+      <c r="I16">
+        <v>76.11</v>
+      </c>
+      <c r="J16">
+        <v>78.67</v>
+      </c>
+      <c r="O16">
+        <v>71.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19">
+        <v>700</v>
+      </c>
+      <c r="F19">
+        <v>800</v>
+      </c>
+      <c r="G19">
+        <v>900</v>
+      </c>
+      <c r="H19">
+        <v>1100</v>
+      </c>
+      <c r="I19">
+        <v>1200</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K19">
+        <v>1500</v>
+      </c>
+      <c r="L19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12">
+      <c r="E20">
+        <v>71.31</v>
+      </c>
+      <c r="F20">
+        <v>71.37</v>
+      </c>
+      <c r="G20">
+        <v>71.03</v>
+      </c>
+      <c r="H20">
+        <v>70.79</v>
+      </c>
+      <c r="I20">
+        <v>71</v>
+      </c>
+      <c r="J20" s="3">
+        <v>70.61</v>
+      </c>
+      <c r="K20">
+        <v>70.63</v>
+      </c>
+      <c r="L20">
+        <v>70.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>71.43</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <v>35</v>
+      </c>
+      <c r="I23">
+        <v>40</v>
+      </c>
+      <c r="J23">
+        <v>45</v>
+      </c>
+      <c r="K23" s="3">
+        <v>50</v>
+      </c>
+      <c r="L23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12">
+      <c r="E24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24">
+        <v>73.87</v>
+      </c>
+      <c r="G24">
+        <v>71.54</v>
+      </c>
+      <c r="H24">
+        <v>70.71</v>
+      </c>
+      <c r="I24">
+        <v>70.61</v>
+      </c>
+      <c r="J24">
+        <v>70.58</v>
+      </c>
+      <c r="K24" s="3">
+        <v>70.37</v>
+      </c>
+      <c r="L24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12">
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>40</v>
+      </c>
+      <c r="G27">
+        <v>60</v>
+      </c>
+      <c r="H27" s="3">
+        <v>70</v>
+      </c>
+      <c r="I27">
+        <v>75</v>
+      </c>
+      <c r="J27">
+        <v>85</v>
+      </c>
+      <c r="K27">
+        <v>90</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12">
+      <c r="E28">
+        <v>76.92</v>
+      </c>
+      <c r="F28">
+        <v>71.97</v>
+      </c>
+      <c r="G28">
+        <v>71.08</v>
+      </c>
+      <c r="H28" s="3">
+        <v>70.35</v>
+      </c>
+      <c r="I28">
+        <v>70.79</v>
+      </c>
+      <c r="J28">
+        <v>70.72</v>
+      </c>
+      <c r="K28">
+        <v>70.64</v>
+      </c>
+      <c r="L28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" ht="6" customHeight="1"/>
+    <row r="42" spans="11:11">
+      <c r="K42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -7235,20 +8441,23 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45:K47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>185</v>
+      </c>
+      <c r="K1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7259,87 +8468,186 @@
         <v>0.00025</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>186</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>187</v>
       </c>
       <c r="B4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>190</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="K5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>191</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="K6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>192</v>
       </c>
       <c r="B7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="K7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="K9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>193</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>194</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="K11" t="s">
+        <v>197</v>
+      </c>
+      <c r="L11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -7349,64 +8657,137 @@
       <c r="C13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>194</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>195</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>196</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="H15" s="5"/>
+      <c r="K15" t="s">
+        <v>195</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16">
         <v>1111</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>197</v>
       </c>
       <c r="B17">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="K17" t="s">
+        <v>201</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>90.23</v>
       </c>
       <c r="C19">
         <v>97.32</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>91.05</v>
+      </c>
+      <c r="E19">
+        <v>94.32</v>
+      </c>
+      <c r="F19">
+        <v>94.09</v>
+      </c>
+      <c r="G19">
+        <v>92.87</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B20">
-        <v>85.56</v>
+        <v>84.56</v>
       </c>
       <c r="C20">
         <v>89.97</v>
       </c>
+      <c r="D20">
+        <v>81.15</v>
+      </c>
+      <c r="E20">
+        <v>85.15</v>
+      </c>
+      <c r="F20">
+        <v>84.81</v>
+      </c>
+      <c r="G20">
+        <v>82.44</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B22">
         <v>92.26</v>
@@ -7415,6 +8796,997 @@
     <row r="23" spans="2:2">
       <c r="B23">
         <v>85.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="6:16">
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+      <c r="M28" t="s">
+        <v>207</v>
+      </c>
+      <c r="P28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31">
+        <v>0.45</v>
+      </c>
+      <c r="F31">
+        <v>0.45</v>
+      </c>
+      <c r="H31">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33">
+        <v>400</v>
+      </c>
+      <c r="F33">
+        <v>400</v>
+      </c>
+      <c r="H33">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34">
+        <v>400</v>
+      </c>
+      <c r="F34">
+        <v>400</v>
+      </c>
+      <c r="H34">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <v>60</v>
+      </c>
+      <c r="H35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>70</v>
+      </c>
+      <c r="F36">
+        <v>70</v>
+      </c>
+      <c r="H36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>1111</v>
+      </c>
+      <c r="F43">
+        <v>1111</v>
+      </c>
+      <c r="H43">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <v>300</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="P44">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="9:14">
+      <c r="I45" t="s">
+        <v>208</v>
+      </c>
+      <c r="J45" t="s">
+        <v>209</v>
+      </c>
+      <c r="K45" t="s">
+        <v>210</v>
+      </c>
+      <c r="L45" t="s">
+        <v>211</v>
+      </c>
+      <c r="M45" t="s">
+        <v>212</v>
+      </c>
+      <c r="N45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46">
+        <v>91.09</v>
+      </c>
+      <c r="C46">
+        <v>92.43</v>
+      </c>
+      <c r="D46">
+        <v>87.65</v>
+      </c>
+      <c r="E46">
+        <v>90.03</v>
+      </c>
+      <c r="F46">
+        <v>79.48</v>
+      </c>
+      <c r="H46">
+        <v>87.71</v>
+      </c>
+      <c r="I46">
+        <v>87.24</v>
+      </c>
+      <c r="J46">
+        <v>87.9</v>
+      </c>
+      <c r="K46">
+        <v>86.82</v>
+      </c>
+      <c r="L46">
+        <v>89.63</v>
+      </c>
+      <c r="M46">
+        <v>88.18</v>
+      </c>
+      <c r="N46">
+        <v>92.4</v>
+      </c>
+      <c r="O46">
+        <v>90.97</v>
+      </c>
+      <c r="P46">
+        <v>83.63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47">
+        <v>84.83</v>
+      </c>
+      <c r="C47">
+        <v>86.32</v>
+      </c>
+      <c r="D47">
+        <v>81.57</v>
+      </c>
+      <c r="E47">
+        <v>83.8</v>
+      </c>
+      <c r="F47" s="3">
+        <v>72.84</v>
+      </c>
+      <c r="H47">
+        <v>81.2</v>
+      </c>
+      <c r="I47">
+        <v>80.45</v>
+      </c>
+      <c r="J47">
+        <v>80.96</v>
+      </c>
+      <c r="K47">
+        <v>79.84</v>
+      </c>
+      <c r="L47">
+        <v>83.23</v>
+      </c>
+      <c r="M47">
+        <v>81.98</v>
+      </c>
+      <c r="N47">
+        <v>86.13</v>
+      </c>
+      <c r="O47">
+        <v>84.54</v>
+      </c>
+      <c r="P47">
+        <v>76.59</v>
+      </c>
+    </row>
+    <row r="48" spans="6:16">
+      <c r="F48" t="s">
+        <v>214</v>
+      </c>
+      <c r="P48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="6:16">
+      <c r="F49">
+        <v>115.78</v>
+      </c>
+      <c r="P49">
+        <v>94.99</v>
+      </c>
+    </row>
+    <row r="50" spans="6:16">
+      <c r="F50">
+        <v>114.45</v>
+      </c>
+      <c r="P50">
+        <v>93.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.00025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5e-5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7e-5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.00012</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.00015</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.00018</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.0002</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.00022</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.00025</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.00028</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.0003</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.00032</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.00035</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.00038</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.0004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3">
+        <v>0.45</v>
+      </c>
+      <c r="E3">
+        <v>93.16</v>
+      </c>
+      <c r="F3">
+        <v>84.75</v>
+      </c>
+      <c r="G3">
+        <v>79.26</v>
+      </c>
+      <c r="H3">
+        <v>77.13</v>
+      </c>
+      <c r="I3">
+        <v>75.76</v>
+      </c>
+      <c r="J3">
+        <v>74.73</v>
+      </c>
+      <c r="K3">
+        <v>74.87</v>
+      </c>
+      <c r="L3" s="3">
+        <v>74.33</v>
+      </c>
+      <c r="M3">
+        <v>74.63</v>
+      </c>
+      <c r="N3">
+        <v>74.88</v>
+      </c>
+      <c r="O3">
+        <v>74.42</v>
+      </c>
+      <c r="P3">
+        <v>75.2</v>
+      </c>
+      <c r="Q3">
+        <v>75.6</v>
+      </c>
+      <c r="R3" t="s">
+        <v>215</v>
+      </c>
+      <c r="S3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6">
+        <v>280</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>17</v>
+      </c>
+      <c r="L6" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>75.12</v>
+      </c>
+      <c r="F7">
+        <v>74.84</v>
+      </c>
+      <c r="G7">
+        <v>74.72</v>
+      </c>
+      <c r="H7">
+        <v>75.45</v>
+      </c>
+      <c r="I7">
+        <v>74.63</v>
+      </c>
+      <c r="J7">
+        <v>74.04</v>
+      </c>
+      <c r="K7">
+        <v>73.97</v>
+      </c>
+      <c r="L7" s="3">
+        <v>73.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>0.35</v>
+      </c>
+      <c r="F10">
+        <v>0.38</v>
+      </c>
+      <c r="G10">
+        <v>0.4</v>
+      </c>
+      <c r="H10">
+        <v>0.42</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="J10">
+        <v>0.48</v>
+      </c>
+      <c r="K10">
+        <v>0.5</v>
+      </c>
+      <c r="L10">
+        <v>0.52</v>
+      </c>
+      <c r="M10">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>76.35</v>
+      </c>
+      <c r="F11">
+        <v>75.63</v>
+      </c>
+      <c r="G11">
+        <v>75.14</v>
+      </c>
+      <c r="H11">
+        <v>74.73</v>
+      </c>
+      <c r="I11" s="3">
+        <v>74.63</v>
+      </c>
+      <c r="J11">
+        <v>74.85</v>
+      </c>
+      <c r="K11">
+        <v>75.6</v>
+      </c>
+      <c r="L11">
+        <v>77.15</v>
+      </c>
+      <c r="M11">
+        <v>79.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>1111</v>
+      </c>
+      <c r="E15">
+        <v>73.85</v>
+      </c>
+      <c r="F15">
+        <v>74.03</v>
+      </c>
+      <c r="G15">
+        <v>73.89</v>
+      </c>
+      <c r="H15">
+        <v>74.63</v>
+      </c>
+      <c r="I15" s="3">
+        <v>73.72</v>
+      </c>
+      <c r="J15" t="s">
+        <v>216</v>
+      </c>
+      <c r="K15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>74.63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18">
+        <v>160</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <v>240</v>
+      </c>
+      <c r="H18">
+        <v>280</v>
+      </c>
+      <c r="I18" s="3">
+        <v>320</v>
+      </c>
+      <c r="J18">
+        <v>360</v>
+      </c>
+      <c r="K18">
+        <v>400</v>
+      </c>
+      <c r="L18">
+        <v>480</v>
+      </c>
+      <c r="N18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12">
+      <c r="D19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19">
+        <v>79.49</v>
+      </c>
+      <c r="F19">
+        <v>74.74</v>
+      </c>
+      <c r="G19">
+        <v>73.27</v>
+      </c>
+      <c r="H19">
+        <v>72.34</v>
+      </c>
+      <c r="I19" s="3">
+        <v>72.49</v>
+      </c>
+      <c r="J19" t="s">
+        <v>216</v>
+      </c>
+      <c r="K19" t="s">
+        <v>216</v>
+      </c>
+      <c r="L19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12">
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
+      <c r="I22">
+        <v>70</v>
+      </c>
+      <c r="J22" s="3">
+        <v>80</v>
+      </c>
+      <c r="K22">
+        <v>90</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12">
+      <c r="D23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23">
+        <v>83.74</v>
+      </c>
+      <c r="F23">
+        <v>75.98</v>
+      </c>
+      <c r="G23">
+        <v>74.2</v>
+      </c>
+      <c r="H23">
+        <v>72.9</v>
+      </c>
+      <c r="I23">
+        <v>72.52</v>
+      </c>
+      <c r="J23" s="3">
+        <v>72.34</v>
+      </c>
+      <c r="K23" t="s">
+        <v>216</v>
+      </c>
+      <c r="L23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12">
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>40</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>55</v>
+      </c>
+      <c r="I26">
+        <v>60</v>
+      </c>
+      <c r="J26">
+        <v>65</v>
+      </c>
+      <c r="K26">
+        <v>70</v>
+      </c>
+      <c r="L26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12">
+      <c r="D27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="3">
+        <v>71.43</v>
+      </c>
+      <c r="F27">
+        <v>72.3</v>
+      </c>
+      <c r="G27">
+        <v>72.15</v>
+      </c>
+      <c r="H27">
+        <v>72.18</v>
+      </c>
+      <c r="I27">
+        <v>72.34</v>
+      </c>
+      <c r="J27">
+        <v>72.46</v>
+      </c>
+      <c r="K27" t="s">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12990" activeTab="10"/>
+    <workbookView windowWidth="28245" windowHeight="12990" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="experiments" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="Sheet2" sheetId="10" r:id="rId9"/>
     <sheet name="Sheet3" sheetId="11" r:id="rId10"/>
     <sheet name="Sheet4" sheetId="12" r:id="rId11"/>
+    <sheet name="recl" sheetId="13" r:id="rId12"/>
+    <sheet name="Sheet5" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="258">
   <si>
     <t>标准参数</t>
   </si>
@@ -699,6 +701,105 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>5ecl</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>lstm</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>1ptb</t>
+  </si>
+  <si>
+    <t>xl</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>XL-baseline</t>
+  </si>
+  <si>
+    <t>new(10) ecl</t>
+  </si>
+  <si>
+    <t>2wt103</t>
+  </si>
+  <si>
+    <t>测试时用k=3N=3反而更好</t>
+  </si>
+  <si>
+    <t>Grave2016</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>6recl</t>
+  </si>
+  <si>
+    <t>延长，画图</t>
+  </si>
+  <si>
+    <t>3summary</t>
+  </si>
+  <si>
+    <t>new10 recl</t>
+  </si>
+  <si>
+    <t>vanilla</t>
+  </si>
+  <si>
+    <t>max_pooling</t>
+  </si>
+  <si>
+    <t>wise_vanilla</t>
+  </si>
+  <si>
+    <t>4cache</t>
+  </si>
+  <si>
+    <t>k=3</t>
+  </si>
+  <si>
+    <t>n=</t>
+  </si>
+  <si>
+    <t>ecl</t>
+  </si>
+  <si>
+    <t>图</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>rnn&amp;lstm</t>
+  </si>
+  <si>
+    <t>transformer</t>
+  </si>
+  <si>
+    <t>attention demo</t>
+  </si>
+  <si>
+    <t>text demo</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>gain</t>
   </si>
 </sst>
 </file>
@@ -706,10 +807,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -729,7 +830,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,21 +846,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,7 +860,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -798,30 +923,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,16 +951,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,17 +966,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -887,7 +988,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,43 +1132,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,127 +1168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,18 +1184,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,6 +1198,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,6 +1256,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1167,164 +1279,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5645,8 +5746,8 @@
   <sheetPr/>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5762,10 +5863,10 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>37.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -5798,6 +5899,9 @@
       </c>
       <c r="L7">
         <v>0.49</v>
+      </c>
+      <c r="Q7">
+        <v>38.61</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5892,13 +5996,13 @@
         <v>20</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>34.32</v>
       </c>
       <c r="Q11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>32.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -5928,6 +6032,12 @@
       </c>
       <c r="L12" t="s">
         <v>215</v>
+      </c>
+      <c r="P12">
+        <v>35.26</v>
+      </c>
+      <c r="Q12">
+        <v>34.01</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6211,6 +6321,859 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4">
+        <v>350</v>
+      </c>
+      <c r="D4">
+        <v>280</v>
+      </c>
+      <c r="E4">
+        <v>280</v>
+      </c>
+      <c r="G4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5">
+        <v>490</v>
+      </c>
+      <c r="D5">
+        <v>490</v>
+      </c>
+      <c r="E5">
+        <v>490</v>
+      </c>
+      <c r="G5">
+        <v>73.73</v>
+      </c>
+      <c r="H5">
+        <v>67.92</v>
+      </c>
+      <c r="M5" t="s">
+        <v>232</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6">
+        <v>1120</v>
+      </c>
+      <c r="D6">
+        <v>700</v>
+      </c>
+      <c r="E6">
+        <v>560</v>
+      </c>
+      <c r="G6">
+        <v>76.96</v>
+      </c>
+      <c r="H6">
+        <v>70.35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6">
+        <v>82.2</v>
+      </c>
+      <c r="P6">
+        <v>78.4</v>
+      </c>
+    </row>
+    <row r="7" spans="13:16">
+      <c r="M7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7">
+        <v>56.72</v>
+      </c>
+      <c r="P7">
+        <v>54.52</v>
+      </c>
+    </row>
+    <row r="8" spans="13:16">
+      <c r="M8" t="s">
+        <v>233</v>
+      </c>
+      <c r="O8">
+        <v>73.73</v>
+      </c>
+      <c r="P8">
+        <v>67.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>188</v>
+      </c>
+      <c r="O9">
+        <v>76.96</v>
+      </c>
+      <c r="P9">
+        <v>70.35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10">
+        <v>350</v>
+      </c>
+      <c r="D10">
+        <v>350</v>
+      </c>
+      <c r="E10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11">
+        <v>490</v>
+      </c>
+      <c r="D11">
+        <v>420</v>
+      </c>
+      <c r="E11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12">
+        <v>770</v>
+      </c>
+      <c r="D12">
+        <v>700</v>
+      </c>
+      <c r="E12">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="13" spans="12:12">
+      <c r="L13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="13:16">
+      <c r="M14" t="s">
+        <v>232</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16">
+      <c r="D15" t="s">
+        <v>236</v>
+      </c>
+      <c r="M15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" t="s">
+        <v>237</v>
+      </c>
+      <c r="O15" t="s">
+        <v>238</v>
+      </c>
+      <c r="P15">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="16" spans="13:16">
+      <c r="M16" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16">
+        <v>17.7</v>
+      </c>
+      <c r="P16">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="17" spans="13:17">
+      <c r="M17" t="s">
+        <v>233</v>
+      </c>
+      <c r="O17">
+        <v>32.85</v>
+      </c>
+      <c r="P17">
+        <v>34.01</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>0.1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>188</v>
+      </c>
+      <c r="O18">
+        <v>32.61</v>
+      </c>
+      <c r="P18">
+        <v>33.64</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20">
+        <v>350</v>
+      </c>
+      <c r="E20">
+        <v>350</v>
+      </c>
+      <c r="F20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21">
+        <v>420</v>
+      </c>
+      <c r="E21">
+        <v>70</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="12:12">
+      <c r="L24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14">
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27">
+        <v>70</v>
+      </c>
+      <c r="E27">
+        <v>70</v>
+      </c>
+      <c r="F27">
+        <v>70</v>
+      </c>
+      <c r="M27" t="s">
+        <v>243</v>
+      </c>
+      <c r="N27">
+        <v>73.06</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16">
+      <c r="C28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28">
+        <v>280</v>
+      </c>
+      <c r="E28">
+        <v>350</v>
+      </c>
+      <c r="F28">
+        <v>420</v>
+      </c>
+      <c r="M28" t="s">
+        <v>208</v>
+      </c>
+      <c r="N28">
+        <v>72.02</v>
+      </c>
+      <c r="O28" t="s">
+        <v>244</v>
+      </c>
+      <c r="P28">
+        <v>72.69</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16">
+      <c r="C29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29">
+        <v>280</v>
+      </c>
+      <c r="E29">
+        <v>280</v>
+      </c>
+      <c r="F29">
+        <v>70</v>
+      </c>
+      <c r="M29" t="s">
+        <v>209</v>
+      </c>
+      <c r="N29">
+        <v>70.35</v>
+      </c>
+      <c r="O29" t="s">
+        <v>244</v>
+      </c>
+      <c r="P29">
+        <v>71.04</v>
+      </c>
+    </row>
+    <row r="30" spans="13:14">
+      <c r="M30" t="s">
+        <v>245</v>
+      </c>
+      <c r="N30">
+        <v>73.11</v>
+      </c>
+    </row>
+    <row r="33" spans="12:17">
+      <c r="L33" t="s">
+        <v>246</v>
+      </c>
+      <c r="M33" t="s">
+        <v>247</v>
+      </c>
+      <c r="N33" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="14:17">
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>77.32</v>
+      </c>
+      <c r="P34">
+        <v>70.86</v>
+      </c>
+      <c r="Q34">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" t="s">
+        <v>250</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35">
+        <v>77.57</v>
+      </c>
+      <c r="P35">
+        <v>70.9</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>5</v>
+      </c>
+      <c r="O36">
+        <v>76.96</v>
+      </c>
+      <c r="P36">
+        <v>70.35</v>
+      </c>
+      <c r="Q36">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>6</v>
+      </c>
+      <c r="O37">
+        <v>78.22</v>
+      </c>
+      <c r="P37">
+        <v>70.54</v>
+      </c>
+      <c r="Q37">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>8</v>
+      </c>
+      <c r="O38">
+        <v>77.57</v>
+      </c>
+      <c r="P38">
+        <v>71.24</v>
+      </c>
+      <c r="Q38">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>10</v>
+      </c>
+      <c r="O39">
+        <v>77.63</v>
+      </c>
+      <c r="P39">
+        <v>70.96</v>
+      </c>
+      <c r="Q39">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" t="s">
+        <v>249</v>
+      </c>
+      <c r="N40">
+        <v>15</v>
+      </c>
+      <c r="O40">
+        <v>78.12</v>
+      </c>
+      <c r="P40">
+        <v>71.33</v>
+      </c>
+      <c r="Q40">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <cols>
+    <col min="3" max="9" width="10.375"/>
+    <col min="10" max="10" width="11.5"/>
+    <col min="11" max="13" width="10.375"/>
+    <col min="14" max="19" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19">
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>140</v>
+      </c>
+      <c r="E2">
+        <v>210</v>
+      </c>
+      <c r="F2">
+        <v>280</v>
+      </c>
+      <c r="G2">
+        <v>350</v>
+      </c>
+      <c r="H2">
+        <v>420</v>
+      </c>
+      <c r="I2">
+        <v>490</v>
+      </c>
+      <c r="J2">
+        <v>560</v>
+      </c>
+      <c r="K2">
+        <v>630</v>
+      </c>
+      <c r="L2">
+        <v>700</v>
+      </c>
+      <c r="M2">
+        <v>770</v>
+      </c>
+      <c r="N2">
+        <v>840</v>
+      </c>
+      <c r="O2">
+        <v>910</v>
+      </c>
+      <c r="P2">
+        <v>980</v>
+      </c>
+      <c r="Q2">
+        <v>1050</v>
+      </c>
+      <c r="R2">
+        <v>1120</v>
+      </c>
+      <c r="S2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3">
+        <v>0.0262892</v>
+      </c>
+      <c r="D3">
+        <v>0.0234951</v>
+      </c>
+      <c r="E3">
+        <v>0.0107594</v>
+      </c>
+      <c r="F3">
+        <v>0.0800105</v>
+      </c>
+      <c r="G3">
+        <v>0.008001</v>
+      </c>
+      <c r="H3">
+        <v>0.004501</v>
+      </c>
+      <c r="I3">
+        <v>0.008491</v>
+      </c>
+      <c r="J3">
+        <v>0.003103</v>
+      </c>
+      <c r="K3">
+        <v>0.007841</v>
+      </c>
+      <c r="L3">
+        <v>0.004891</v>
+      </c>
+      <c r="M3">
+        <v>0.004047</v>
+      </c>
+      <c r="N3">
+        <v>0.006131</v>
+      </c>
+      <c r="O3">
+        <v>0.002379</v>
+      </c>
+      <c r="P3">
+        <v>0.004607</v>
+      </c>
+      <c r="Q3">
+        <v>0.002209</v>
+      </c>
+      <c r="R3">
+        <v>0.002743</v>
+      </c>
+      <c r="S3">
+        <v>0.003344</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4">
+        <v>0.0487279</v>
+      </c>
+      <c r="D4">
+        <v>0.03901</v>
+      </c>
+      <c r="E4">
+        <v>0.0432253</v>
+      </c>
+      <c r="F4">
+        <v>0.0243424</v>
+      </c>
+      <c r="G4">
+        <v>0.0169796</v>
+      </c>
+      <c r="H4">
+        <v>0.0156509</v>
+      </c>
+      <c r="I4">
+        <v>0.0094367</v>
+      </c>
+      <c r="J4">
+        <v>0.0101249</v>
+      </c>
+      <c r="K4">
+        <v>0.006244</v>
+      </c>
+      <c r="L4">
+        <v>0.008823</v>
+      </c>
+      <c r="M4">
+        <v>0.007479</v>
+      </c>
+      <c r="N4">
+        <v>0.007857</v>
+      </c>
+      <c r="O4">
+        <v>0.005564</v>
+      </c>
+      <c r="P4">
+        <v>0.007532</v>
+      </c>
+      <c r="Q4">
+        <v>0.008138</v>
+      </c>
+      <c r="R4">
+        <v>0.006477</v>
+      </c>
+      <c r="S4">
+        <v>0.006389</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5">
+        <v>0.033107</v>
+      </c>
+      <c r="D5">
+        <v>0.043002</v>
+      </c>
+      <c r="E5">
+        <v>0.029273</v>
+      </c>
+      <c r="F5">
+        <v>0.307367</v>
+      </c>
+      <c r="G5">
+        <v>0.026591</v>
+      </c>
+      <c r="H5">
+        <v>0.0256774</v>
+      </c>
+      <c r="I5">
+        <v>0.0225058</v>
+      </c>
+      <c r="J5">
+        <v>0.01360883</v>
+      </c>
+      <c r="K5">
+        <v>0.0233466</v>
+      </c>
+      <c r="L5">
+        <v>0.0114116</v>
+      </c>
+      <c r="M5">
+        <v>0.0106403</v>
+      </c>
+      <c r="N5">
+        <v>0.014303</v>
+      </c>
+      <c r="O5">
+        <v>0.011153</v>
+      </c>
+      <c r="P5">
+        <v>0.012142</v>
+      </c>
+      <c r="Q5">
+        <v>0.011517</v>
+      </c>
+      <c r="R5">
+        <v>0.00803</v>
+      </c>
+      <c r="S5">
+        <v>0.00929</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="257">
   <si>
     <t>标准参数</t>
   </si>
@@ -779,9 +779,6 @@
   </si>
   <si>
     <t>图</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>rnn&amp;lstm</t>
@@ -6330,8 +6327,8 @@
   <sheetPr/>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6790,7 +6787,7 @@
         <v>70.86</v>
       </c>
       <c r="Q34">
-        <v>910</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -6801,18 +6798,18 @@
         <v>4</v>
       </c>
       <c r="O35">
-        <v>77.57</v>
+        <v>78.05</v>
       </c>
       <c r="P35">
-        <v>70.9</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>251</v>
+        <v>70.86</v>
+      </c>
+      <c r="Q35">
+        <v>630</v>
       </c>
     </row>
     <row r="36" spans="2:17">
       <c r="B36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -6827,12 +6824,12 @@
         <v>70.35</v>
       </c>
       <c r="Q36">
-        <v>1120</v>
+        <v>770</v>
       </c>
     </row>
     <row r="37" spans="2:17">
       <c r="B37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -6841,13 +6838,13 @@
         <v>6</v>
       </c>
       <c r="O37">
-        <v>78.22</v>
+        <v>77.21</v>
       </c>
       <c r="P37">
-        <v>70.54</v>
+        <v>70.41</v>
       </c>
       <c r="Q37">
-        <v>770</v>
+        <v>700</v>
       </c>
     </row>
     <row r="38" spans="2:17">
@@ -6861,13 +6858,13 @@
         <v>8</v>
       </c>
       <c r="O38">
-        <v>77.57</v>
+        <v>78.52</v>
       </c>
       <c r="P38">
-        <v>71.24</v>
+        <v>71.62</v>
       </c>
       <c r="Q38">
-        <v>1470</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39" spans="2:17">
@@ -6881,13 +6878,13 @@
         <v>10</v>
       </c>
       <c r="O39">
-        <v>77.63</v>
+        <v>77.71</v>
       </c>
       <c r="P39">
-        <v>70.96</v>
+        <v>71.03</v>
       </c>
       <c r="Q39">
-        <v>1400</v>
+        <v>770</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -6904,17 +6901,17 @@
         <v>71.33</v>
       </c>
       <c r="Q40">
-        <v>1190</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -6947,7 +6944,7 @@
     </row>
     <row r="2" spans="2:19">
       <c r="B2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2">
         <v>70</v>
@@ -7003,7 +7000,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
         <v>227</v>
